--- a/4sem/лабы/предмет чм/lab5.xlsx
+++ b/4sem/лабы/предмет чм/lab5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\леха\Desktop\2 курс\4sem\лабы\предмет чм\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3159609C-C19C-4D03-88C8-51144B73EEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E5D2D4-F5D6-4AA0-967A-8CF2203F3588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1697" yWindow="1714" windowWidth="18377" windowHeight="12009" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2049" yWindow="660" windowWidth="18505" windowHeight="12009" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>i</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>сравнить значения</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>центр. Прямугольники</t>
   </si>
 </sst>
 </file>
@@ -159,9 +168,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -442,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -558,11 +567,11 @@
         <v>0.13497513681387419</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:K3" si="1">EXP(C2)*SIN(C2)</f>
+        <f>EXP(C2)*SIN(C2)</f>
         <v>0.3021792618746611</v>
       </c>
       <c r="D3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D3:K3" si="1">EXP(D2)*SIN(D2)</f>
         <v>0.50492502054487731</v>
       </c>
       <c r="E3">
@@ -602,6 +611,12 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>0.12</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" t="s">
         <v>17</v>
@@ -622,6 +637,9 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" t="s">
         <v>18</v>
@@ -632,20 +650,20 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
@@ -711,11 +729,11 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11">
         <f>1.2/20*J9</f>
         <v>0.25785293128167069</v>
@@ -747,8 +765,8 @@
         <v>0.1903317619164826</v>
       </c>
       <c r="G13">
-        <f>ABS(1.445-1.235)</f>
-        <v>0.20999999999999996</v>
+        <f>ABS(1.445-B72)</f>
+        <v>9.1140678907948303E-2</v>
       </c>
       <c r="O13" s="1"/>
     </row>
@@ -791,7 +809,7 @@
       <c r="F17" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="3"/>
       <c r="K17" t="s">
         <v>0</v>
       </c>
@@ -826,7 +844,7 @@
         <f>(SUM(F19:F53)+(F54/2))*B19</f>
         <v>1.4422984947060276</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="3"/>
       <c r="K18">
         <v>0</v>
       </c>
@@ -864,7 +882,7 @@
         <f>EXP(E19)*SIN(E19)</f>
         <v>3.442119729888047E-2</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="3"/>
       <c r="K19">
         <f>K18+1</f>
         <v>1</v>
@@ -891,7 +909,7 @@
         <f t="shared" ref="F20:F54" si="5">EXP(E20)*SIN(E20)</f>
         <v>7.1133984776445613E-2</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="3"/>
       <c r="K20">
         <f t="shared" ref="K20:K35" si="6">K19+1</f>
         <v>2</v>
@@ -918,7 +936,7 @@
         <f t="shared" si="5"/>
         <v>0.11021200146081465</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="3"/>
       <c r="K21">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -945,7 +963,7 @@
         <f t="shared" si="5"/>
         <v>0.15172853456526117</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="3"/>
       <c r="K22">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -972,7 +990,7 @@
         <f t="shared" si="5"/>
         <v>0.19575632722102812</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="3"/>
       <c r="K23">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -999,7 +1017,7 @@
         <f t="shared" si="5"/>
         <v>0.24236737421662849</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="3"/>
       <c r="K24">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -1026,7 +1044,7 @@
         <f t="shared" si="5"/>
         <v>0.29163270538600838</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="3"/>
       <c r="K25">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -1053,7 +1071,7 @@
         <f t="shared" si="5"/>
         <v>0.34362215629164011</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="3"/>
       <c r="K26">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -1080,7 +1098,7 @@
         <f t="shared" si="5"/>
         <v>0.39840412585337009</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="3"/>
       <c r="K27">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -1107,7 +1125,7 @@
         <f t="shared" si="5"/>
         <v>0.45604532057972963</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="3"/>
       <c r="K28">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -1134,7 +1152,7 @@
         <f t="shared" si="5"/>
         <v>0.51661048506549667</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="3"/>
       <c r="K29">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -1161,7 +1179,7 @@
         <f t="shared" si="5"/>
         <v>0.58016211842762799</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="3"/>
       <c r="K30">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -1188,7 +1206,7 @@
         <f t="shared" si="5"/>
         <v>0.64676017636134675</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="3"/>
       <c r="K31">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -1215,7 +1233,7 @@
         <f t="shared" si="5"/>
         <v>0.71646175850922389</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="3"/>
       <c r="K32">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -1242,7 +1260,7 @@
         <f t="shared" si="5"/>
         <v>0.7893207808486149</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33" s="3"/>
       <c r="K33">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -1269,7 +1287,7 @@
         <f t="shared" si="5"/>
         <v>0.86538763281687303</v>
       </c>
-      <c r="J34" s="4"/>
+      <c r="J34" s="3"/>
       <c r="K34">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -1296,7 +1314,7 @@
         <f t="shared" si="5"/>
         <v>0.94470881890943093</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="J35" s="3"/>
       <c r="K35">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -1323,7 +1341,7 @@
         <f t="shared" si="5"/>
         <v>1.0273265845032047</v>
       </c>
-      <c r="J36" s="4"/>
+      <c r="J36" s="3"/>
       <c r="K36">
         <f>K35+1</f>
         <v>18</v>
@@ -1350,7 +1368,7 @@
         <f t="shared" si="5"/>
         <v>1.1132785256768878</v>
       </c>
-      <c r="J37" s="4"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D38">
@@ -1365,7 +1383,7 @@
         <f t="shared" si="5"/>
         <v>1.2025971828206725</v>
       </c>
-      <c r="J38" s="4"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D39">
@@ -1380,7 +1398,7 @@
         <f t="shared" si="5"/>
         <v>1.2953096178508123</v>
       </c>
-      <c r="J39" s="4"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D40">
@@ -1395,7 +1413,7 @@
         <f t="shared" si="5"/>
         <v>1.3914369748693212</v>
       </c>
-      <c r="J40" s="4"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D41">
@@ -1410,7 +1428,7 @@
         <f t="shared" si="5"/>
         <v>1.4909940241360633</v>
       </c>
-      <c r="J41" s="4"/>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D42">
@@ -1425,7 +1443,7 @@
         <f t="shared" si="5"/>
         <v>1.5939886892496089</v>
       </c>
-      <c r="J42" s="4"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D43">
@@ -1440,7 +1458,7 @@
         <f t="shared" si="5"/>
         <v>1.7004215574646</v>
       </c>
-      <c r="J43" s="4"/>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D44">
@@ -1455,7 +1473,7 @@
         <f t="shared" si="5"/>
         <v>1.8102853731070443</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="J44" s="3"/>
     </row>
     <row r="45" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D45">
@@ -1470,7 +1488,7 @@
         <f t="shared" si="5"/>
         <v>1.9235645140850779</v>
       </c>
-      <c r="J45" s="4"/>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D46">
@@ -1485,7 +1503,7 @@
         <f t="shared" si="5"/>
         <v>2.0402344515313016</v>
       </c>
-      <c r="J46" s="4"/>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D47">
@@ -1500,7 +1518,7 @@
         <f t="shared" si="5"/>
         <v>2.1602611926539788</v>
       </c>
-      <c r="J47" s="4"/>
+      <c r="J47" s="3"/>
     </row>
     <row r="48" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D48">
@@ -1515,7 +1533,7 @@
         <f t="shared" si="5"/>
         <v>2.2836007069181941</v>
       </c>
-      <c r="J48" s="4"/>
+      <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D49">
@@ -1530,7 +1548,7 @@
         <f t="shared" si="5"/>
         <v>2.4101983357246399</v>
       </c>
-      <c r="J49" s="4"/>
+      <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D50">
@@ -1545,7 +1563,7 @@
         <f t="shared" si="5"/>
         <v>2.5399881858030873</v>
       </c>
-      <c r="J50" s="4"/>
+      <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D51">
@@ -1560,7 +1578,7 @@
         <f t="shared" si="5"/>
         <v>2.6728925065898599</v>
       </c>
-      <c r="J51" s="4"/>
+      <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D52">
@@ -1575,7 +1593,7 @@
         <f t="shared" si="5"/>
         <v>2.8088210519139483</v>
       </c>
-      <c r="J52" s="4"/>
+      <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D53">
@@ -1590,7 +1608,7 @@
         <f t="shared" si="5"/>
         <v>2.947670426374684</v>
       </c>
-      <c r="J53" s="4"/>
+      <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D54">
@@ -1605,7 +1623,7 @@
         <f t="shared" si="5"/>
         <v>3.0893234168554056</v>
       </c>
-      <c r="J54" s="4"/>
+      <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
@@ -1692,44 +1710,307 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <f>-4*EXP(B2)*SIN(B2)</f>
+        <f t="shared" ref="B63:K63" si="9">-4*EXP(B2)*SIN(B2)</f>
         <v>-0.53990054725549674</v>
       </c>
       <c r="C63">
-        <f>-4*EXP(C2)*SIN(C2)</f>
+        <f t="shared" si="9"/>
         <v>-1.2087170474986444</v>
       </c>
       <c r="D63">
-        <f>-4*EXP(D2)*SIN(D2)</f>
+        <f t="shared" si="9"/>
         <v>-2.0197000821795092</v>
       </c>
       <c r="E63">
-        <f>-4*EXP(E2)*SIN(E2)</f>
+        <f t="shared" si="9"/>
         <v>-2.9850780202333169</v>
       </c>
       <c r="F63">
-        <f>-4*EXP(F2)*SIN(F2)</f>
+        <f t="shared" si="9"/>
         <v>-4.1153826650883669</v>
       </c>
       <c r="G63">
-        <f>-4*EXP(G2)*SIN(G2)</f>
+        <f t="shared" si="9"/>
         <v>-5.4186470747508801</v>
       </c>
       <c r="H63">
-        <f>-4*EXP(H2)*SIN(H2)</f>
+        <f t="shared" si="9"/>
         <v>-6.8994669303509557</v>
       </c>
       <c r="I63">
-        <f>-4*EXP(I2)*SIN(I2)</f>
+        <f t="shared" si="9"/>
         <v>-8.5579189199586807</v>
       </c>
       <c r="J63">
-        <f>-4*EXP(J2)*SIN(J2)</f>
+        <f t="shared" si="9"/>
         <v>-10.388332475346806</v>
       </c>
       <c r="K63">
-        <f>-4*EXP(K2)*SIN(K2)</f>
+        <f t="shared" si="9"/>
         <v>-12.37791496788677</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66">
+        <v>7</v>
+      </c>
+      <c r="I66">
+        <v>8</v>
+      </c>
+      <c r="J66">
+        <v>9</v>
+      </c>
+      <c r="K66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <f>0+$B$70</f>
+        <v>0.06</v>
+      </c>
+      <c r="C67">
+        <f>$B$70+B67</f>
+        <v>0.12</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:U67" si="10">$B$70+C67</f>
+        <v>0.18</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="10"/>
+        <v>0.24</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="10"/>
+        <v>0.36</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="10"/>
+        <v>0.42</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="10"/>
+        <v>0.48</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="10"/>
+        <v>0.54</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="10"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="L67">
+        <f>$B$70+K67</f>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="10"/>
+        <v>0.7200000000000002</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="10"/>
+        <v>0.78000000000000025</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="10"/>
+        <v>0.8400000000000003</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="10"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="10"/>
+        <v>0.96000000000000041</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="10"/>
+        <v>1.0200000000000005</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="10"/>
+        <v>1.0800000000000005</v>
+      </c>
+      <c r="T67">
+        <f>$B$70+S67</f>
+        <v>1.1400000000000006</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="10"/>
+        <v>1.2000000000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <f>EXP(B67)*SIN(B67)</f>
+        <v>6.3671973557157022E-2</v>
+      </c>
+      <c r="C68">
+        <f>EXP(C67)*SIN(C67)</f>
+        <v>0.13497513681387419</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:U68" si="11">EXP(D67)*SIN(D67)</f>
+        <v>0.21433731381768772</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="11"/>
+        <v>0.3021792618746611</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="11"/>
+        <v>0.39891055377848983</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="11"/>
+        <v>0.50492502054487731</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="11"/>
+        <v>0.62059573345830221</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="11"/>
+        <v>0.74626950505832923</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="11"/>
+        <v>0.88226088977295936</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="11"/>
+        <v>1.028845666272092</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="11"/>
+        <v>1.1862537852909052</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="11"/>
+        <v>1.3546617686877209</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="11"/>
+        <v>1.5341845478813785</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="11"/>
+        <v>1.7248667325877403</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="11"/>
+        <v>1.9266733039727184</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="11"/>
+        <v>2.1394797299896715</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="11"/>
+        <v>2.3630615048019501</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="11"/>
+        <v>2.5970831188367032</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="11"/>
+        <v>2.8410864712036439</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="11"/>
+        <v>3.0944787419716948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70">
+        <f>0.06</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <f>SUM(B68:T68)*B70</f>
+        <v>1.3538593210920518</v>
       </c>
     </row>
   </sheetData>

--- a/4sem/лабы/предмет чм/lab5.xlsx
+++ b/4sem/лабы/предмет чм/lab5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\леха\Desktop\2 курс\4sem\лабы\предмет чм\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E5D2D4-F5D6-4AA0-967A-8CF2203F3588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87237EB-9E94-4477-8259-0AA9D7E51D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2049" yWindow="660" windowWidth="18505" windowHeight="12009" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2143" yWindow="300" windowWidth="21360" windowHeight="12009" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -700,7 +700,7 @@
         <v>2.1797192946369925</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f>EXP(F2)*SIN(F2)+EXP(F2)*COS(F2)</f>
         <v>2.5327052068308777</v>
       </c>
       <c r="F9">
